--- a/Front Board/BOM-FrontBoard-Rev2b.xlsx
+++ b/Front Board/BOM-FrontBoard-Rev2b.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{B439F6C4-50CD-43FF-BD68-2925C4709058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22EC4B07-71F3-42A1-9767-42B851A35AF9}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{B439F6C4-50CD-43FF-BD68-2925C4709058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63152313-927B-48E9-8233-29404B97DFEA}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12645" xr2:uid="{77CB6002-7663-48CA-B3CB-24645D4D754B}"/>
+    <workbookView xWindow="30270" yWindow="2010" windowWidth="21600" windowHeight="12645" xr2:uid="{77CB6002-7663-48CA-B3CB-24645D4D754B}"/>
   </bookViews>
   <sheets>
     <sheet name="FrontPanelRev2b" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FrontPanelRev2b!$A$1:$K$95</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">FrontPanelRev2b!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="555">
   <si>
     <t>Quantity</t>
   </si>
@@ -453,9 +454,6 @@
     <t>CT6EP102-ND</t>
   </si>
   <si>
-    <t>Pot2</t>
-  </si>
-  <si>
     <t>Res Conductive Plastic POT 100K Ohm 20% 1/4W 1(Elec)/1(Mech)Turn 3.18mm (9.53 X 9.75 X 20.24mm) Pin Panel...</t>
   </si>
   <si>
@@ -471,12 +469,6 @@
     <t>Bourns</t>
   </si>
   <si>
-    <t>3306P-1-104</t>
-  </si>
-  <si>
-    <t>3306P-104-ND</t>
-  </si>
-  <si>
     <t>Pot20</t>
   </si>
   <si>
@@ -1143,9 +1135,6 @@
     <t>RK73H2ATTD2493F</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>2X1H0.1LS0.9MMHole</t>
   </si>
   <si>
@@ -2597,12 +2586,27 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -2612,60 +2616,30 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>0</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
     <t>TP1, TP2, TP4, TP5, TP22, TP25, TP26</t>
   </si>
   <si>
@@ -2682,6 +2656,12 @@
   </si>
   <si>
     <t>S100 (Alternate)</t>
+  </si>
+  <si>
+    <t>CAP ALUM 100UF 20% 25V</t>
+  </si>
+  <si>
+    <t>Pot2/S1</t>
   </si>
 </sst>
 </file>
@@ -3120,10 +3100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24013E4-F856-4480-B612-692ECAC98BDB}">
-  <dimension ref="A1:K96"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,15 +3126,15 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3168,13 +3151,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -3191,10 +3174,10 @@
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -3219,15 +3202,15 @@
         <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -3252,15 +3235,15 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>18</v>
@@ -3285,15 +3268,15 @@
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
@@ -3318,18 +3301,18 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
@@ -3351,12 +3334,12 @@
         <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>33</v>
@@ -3384,12 +3367,12 @@
         <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -3422,13 +3405,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -3441,21 +3424,21 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>47</v>
@@ -3481,12 +3464,12 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>53</v>
@@ -3517,7 +3500,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>60</v>
@@ -3536,7 +3519,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>63</v>
@@ -3550,10 +3533,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>65</v>
@@ -3567,7 +3550,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>68</v>
@@ -3576,12 +3559,12 @@
         <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>69</v>
@@ -3600,7 +3583,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>73</v>
@@ -3614,7 +3597,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>120</v>
@@ -3645,171 +3628,171 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
@@ -3819,49 +3802,49 @@
         <v>137</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="J25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3869,475 +3852,475 @@
         <v>8</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
@@ -4347,96 +4330,96 @@
         <v>137</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
@@ -4446,775 +4429,775 @@
         <v>137</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="G68" s="11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>8</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="C69" s="7" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>23</v>
@@ -5239,13 +5222,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>44</v>
@@ -5272,7 +5255,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>75</v>
@@ -5303,7 +5286,7 @@
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>81</v>
@@ -5334,7 +5317,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>86</v>
@@ -5363,7 +5346,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>92</v>
@@ -5394,7 +5377,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>97</v>
@@ -5425,7 +5408,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>105</v>
@@ -5456,7 +5439,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>110</v>
@@ -5487,7 +5470,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>115</v>
@@ -5518,7 +5501,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>126</v>
@@ -5549,7 +5532,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>133</v>
@@ -5582,158 +5565,156 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="I81" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>149</v>
+        <v>517</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>153</v>
+        <v>544</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>160</v>
+        <v>535</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>162</v>
+        <v>368</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="I84" s="4" t="s">
-        <v>164</v>
+        <v>369</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B85" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>371</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>142</v>
+        <v>372</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>145</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G85" s="3"/>
       <c r="H85" s="4" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>373</v>
@@ -5742,269 +5723,269 @@
         <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C91" s="4" t="s">
         <v>404</v>
       </c>
+      <c r="C91" s="10" t="s">
+        <v>549</v>
+      </c>
       <c r="D91" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>405</v>
+        <v>550</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>406</v>
+        <v>550</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>407</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>555</v>
+        <v>406</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>556</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>557</v>
+        <v>409</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>414</v>
+        <v>548</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
@@ -6012,82 +5993,51 @@
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="I94" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="J94" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B95" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>553</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="I95" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K95" s="3" t="s">
+      <c r="K95" s="4" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>